--- a/src/test/resources/DataSources/TestDataFile.xlsx
+++ b/src/test/resources/DataSources/TestDataFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agouda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Automation\TN_Automatioon_Project\TNET\src\test\resources\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{308D647E-B76A-4D26-B7E6-FBD08FD66860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D1D3DD-38CD-4396-ABEA-646DDAAF5D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{C25EE4C0-26D4-44A6-B854-725444FE2D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C25EE4C0-26D4-44A6-B854-725444FE2D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,5 +427,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>